--- a/Office_Files/02_HazardAnalysisAndRiskAssessment.xlsx
+++ b/Office_Files/02_HazardAnalysisAndRiskAssessment.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="293">
   <si>
     <t>Hazard &amp; Risk Analysis Definitions</t>
   </si>
@@ -40,109 +40,86 @@
     <t>EXAMPLE DISCUSSED IN THE PROJECT INSTRUCTIONS - Headlamp System</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
     <t>Hazard ID</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
   <si>
     <t>Situational Analysis</t>
   </si>
   <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Fill out the hazard analysis and risk assessment below.</t>
   </si>
   <si>
+    <t>Parked</t>
+  </si>
+  <si>
+    <t>Hazard Identification</t>
+  </si>
+  <si>
+    <t>Car is parked, ignition is off</t>
+  </si>
+  <si>
+    <t>Hazardous Event Classification</t>
+  </si>
+  <si>
+    <t>Determination of ASIL and Safety Goals</t>
+  </si>
+  <si>
+    <t>Ignition on</t>
+  </si>
+  <si>
+    <t>Car is parked, ignition is on</t>
+  </si>
+  <si>
+    <t>Normal driving</t>
+  </si>
+  <si>
+    <t>Car is driving</t>
+  </si>
+  <si>
+    <t>Backward driving</t>
+  </si>
+  <si>
+    <t>Degraded driving</t>
+  </si>
+  <si>
+    <t>Limp home mode</t>
+  </si>
+  <si>
     <t>HA-001 should be for the lane departure warning function as discussed in the lecture.</t>
   </si>
   <si>
-    <t>Parked</t>
-  </si>
-  <si>
-    <t>HA-002 should be for the lane keeping assistance function as discussed in the lecture.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then come up with your own situations and hazards for the lane assistance system. Fill in the HA-003 and HA-004 rows. </t>
-  </si>
-  <si>
-    <t>Car is parked, ignition is off</t>
-  </si>
-  <si>
-    <t>When finished, export your spreadsheet as a pdf file so that a reviewer can easily see your work.</t>
-  </si>
-  <si>
-    <t>Ignition on</t>
-  </si>
-  <si>
-    <t>Hazard Identification</t>
-  </si>
-  <si>
-    <t>Car is parked, ignition is on</t>
-  </si>
-  <si>
-    <t>Normal driving</t>
-  </si>
-  <si>
-    <t>Car is driving</t>
-  </si>
-  <si>
-    <t>Backward driving</t>
-  </si>
-  <si>
-    <t>Degraded driving</t>
-  </si>
-  <si>
-    <t>Limp home mode</t>
-  </si>
-  <si>
-    <t>Hazardous Event Classification</t>
-  </si>
-  <si>
     <t>Towing (active)</t>
   </si>
   <si>
     <t>Towing another car</t>
   </si>
   <si>
-    <t>Determination of ASIL and Safety Goals</t>
+    <t>Operational Scenario</t>
+  </si>
+  <si>
+    <t>Environmental Details</t>
   </si>
   <si>
     <t>Towing (passive)</t>
   </si>
   <si>
+    <t>Situation Details
+(optional)</t>
+  </si>
+  <si>
     <t>Beeing towed by another car</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Vehicle is in repair garage</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>not applicable or not relevant</t>
-  </si>
-  <si>
-    <t>Operational Scenario</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Environmental Details</t>
-  </si>
-  <si>
-    <t>Situation Details</t>
   </si>
   <si>
     <t>Other Details
@@ -162,13 +139,6 @@
     <t>Deviation</t>
   </si>
   <si>
-    <t>Situation Details
-(optional)</t>
-  </si>
-  <si>
-    <t>Deviation Details</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deviation Details
 </t>
   </si>
@@ -200,18 +170,18 @@
 (for severity)</t>
   </si>
   <si>
+    <t>Service</t>
+  </si>
+  <si>
     <t>Controllability
 (of hazardous event)</t>
   </si>
   <si>
-    <t>Any Road</t>
-  </si>
-  <si>
     <t>Rationale
 (for controllability)</t>
   </si>
   <si>
-    <t>road type</t>
+    <t>Vehicle is in repair garage</t>
   </si>
   <si>
     <t>ASIL
@@ -221,258 +191,423 @@
     <t>Safety Goal</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>not applicable or not relevant</t>
+  </si>
+  <si>
+    <t>HA-002 should be for the lane keeping assistance function as discussed in the lecture.</t>
+  </si>
+  <si>
     <t>HA-001</t>
   </si>
   <si>
+    <t xml:space="preserve">Then come up with your own situations and hazards for the lane assistance system. Fill in the HA-003 and HA-004 rows. </t>
+  </si>
+  <si>
+    <t>When finished, export your spreadsheet as a pdf file so that a reviewer can easily see your work.</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Normal Driving</t>
+  </si>
+  <si>
     <t>City Road</t>
   </si>
   <si>
+    <t>Normal Conditions</t>
+  </si>
+  <si>
+    <t>Low Speed</t>
+  </si>
+  <si>
+    <t>Night time + Obstacle on the road</t>
+  </si>
+  <si>
+    <t>Correctly Used</t>
+  </si>
+  <si>
+    <t>Normal Driving on a City Road in Normal Conditions at Low Speed at Night with an Obstacle on the Road</t>
+  </si>
+  <si>
+    <t>Low beam illuminates the roadway in the dark</t>
+  </si>
+  <si>
+    <t>Function not activated</t>
+  </si>
+  <si>
+    <t>Both headlights stop working</t>
+  </si>
+  <si>
+    <t>Front collision with obstacle</t>
+  </si>
+  <si>
+    <t>Vehicle crashes into the obstacle with injury to driver</t>
+  </si>
+  <si>
+    <t>Total loss of low beam</t>
+  </si>
+  <si>
+    <t>E4 - High probability</t>
+  </si>
+  <si>
+    <t>night driving in the city is a regular activity</t>
+  </si>
+  <si>
+    <t>S1 - Light and moderate injuries</t>
+  </si>
+  <si>
+    <t>In city traffiic, speed of vehicle is expected to be low</t>
+  </si>
+  <si>
+    <t>C0 - Controllable in general</t>
+  </si>
+  <si>
+    <t>At city speed, most drivers will be able to control the situation by applying brakes and there is additional illmunitation on city roads</t>
+  </si>
+  <si>
+    <t>QM</t>
+  </si>
+  <si>
+    <t>Total Loss of Beam Shall Be Prevented</t>
+  </si>
+  <si>
+    <t>Any Road</t>
+  </si>
+  <si>
+    <t>road type</t>
+  </si>
+  <si>
     <t>Country Road</t>
   </si>
   <si>
+    <t>MORE EXAMPLES - Headlamp System</t>
+  </si>
+  <si>
     <t>Highway</t>
   </si>
   <si>
+    <t>Mountain Pass</t>
+  </si>
+  <si>
+    <t>Off Road</t>
+  </si>
+  <si>
+    <t>Situation Analysis</t>
+  </si>
+  <si>
+    <t>Road with gradient</t>
+  </si>
+  <si>
+    <t>road attribute</t>
+  </si>
+  <si>
+    <t>Situation Details</t>
+  </si>
+  <si>
+    <t>Deviation Details</t>
+  </si>
+  <si>
+    <t>Road with bump</t>
+  </si>
+  <si>
+    <t>Road tunnel</t>
+  </si>
+  <si>
+    <t>Road with construction site</t>
+  </si>
+  <si>
     <t>OM03 - Normal driving</t>
   </si>
   <si>
+    <t>OS04 - Highway</t>
+  </si>
+  <si>
+    <t>EN06 - Rain (slippery road)</t>
+  </si>
+  <si>
+    <t>SD02 - High speed</t>
+  </si>
+  <si>
+    <t>Lane Departure</t>
+  </si>
+  <si>
+    <t>IU01 - Correctly used</t>
+  </si>
+  <si>
+    <t>Normal Driving on a Highway in Rain(slippery road) at High Speed at Lane Departure.</t>
+  </si>
+  <si>
+    <t>OM03 - Normal Driving</t>
+  </si>
+  <si>
+    <t>OS01 - City Road</t>
+  </si>
+  <si>
+    <t>EN01 - Normal conditions</t>
+  </si>
+  <si>
+    <t>SD03 - Low speed</t>
+  </si>
+  <si>
+    <t>Normal Driving on City Road during Normal conditions with Low speed (Night time + Obstacle on the road)</t>
+  </si>
+  <si>
+    <t>DV01 - Function not activated</t>
+  </si>
+  <si>
+    <t>EV04 - Front collision with obstacle</t>
+  </si>
+  <si>
+    <t>Lane Departure Warning (LDW) function shall apply an oscillating steering torque to provide the driver with haptic feedback</t>
+  </si>
+  <si>
+    <t>DV04 - Actor effect is too much</t>
+  </si>
+  <si>
+    <t>Total loss of low beam shall be prevented</t>
+  </si>
+  <si>
+    <t>The LDW function applies an oscillating torque with very high torque (above limit).</t>
+  </si>
+  <si>
+    <t>HA-002</t>
+  </si>
+  <si>
+    <t>EV00 - Collision with other vehicle</t>
+  </si>
+  <si>
+    <t>EN04 - Snowfall (degraded view)</t>
+  </si>
+  <si>
+    <t>High haptic feedback can affect driver's ability to steer as intended. The driver could lose control of the vehicle and collide with another vehicle or with road infrastructure.</t>
+  </si>
+  <si>
+    <t>The LDW function applies too high an oscillating torque to the steering wheel (above limit).</t>
+  </si>
+  <si>
+    <t>Night time + Obstacle on the road and no other illumination on road</t>
+  </si>
+  <si>
+    <t>E3 - Medium probability</t>
+  </si>
+  <si>
+    <t>Normal Driving on City Road during Snowfall (degraded view) with Low speed (Night time + Obstacle on the road and no other illumination on road)</t>
+  </si>
+  <si>
+    <t>Occurs once a month or more often for an average driver</t>
+  </si>
+  <si>
+    <t>S3 - Life-threatening or fatal injuries</t>
+  </si>
+  <si>
+    <t>On country roads speed of vehicle is expected to be high.</t>
+  </si>
+  <si>
+    <t>C3 - Difficult to control or uncontrollable</t>
+  </si>
+  <si>
+    <t>E1 - Very low probability</t>
+  </si>
+  <si>
+    <t>night driving in the city on completely unilluminated roads while it is snowing is rare</t>
+  </si>
+  <si>
+    <t>Low speed</t>
+  </si>
+  <si>
+    <t>driving attribute</t>
+  </si>
+  <si>
+    <t>C1 - Simply controllable</t>
+  </si>
+  <si>
+    <t>If the lane departure warning function causes the steering wheel to vibrate excessively with wild swings of the steering wheel, most drivers would have difficulty controlling the vehicle.</t>
+  </si>
+  <si>
+    <t>On completely unilluminated city roads, drivers usually drive at lower end of city speeds and hence are expected to be able to control vehicle</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>The oscillating steering torque from the LDW function shall be limited.</t>
+  </si>
+  <si>
+    <t>HA-003</t>
+  </si>
+  <si>
+    <t>OS03 - Highway</t>
+  </si>
+  <si>
+    <t>SD03 - High speed</t>
+  </si>
+  <si>
+    <t>Night time + Obstacle on the road or upcoming curve</t>
+  </si>
+  <si>
+    <t>Normal Driving on Highway during Snowfall (degraded view) with High speed (Night time + Obstacle on the road or upcoming curve)</t>
+  </si>
+  <si>
+    <t>Vehicle crashes into the obstacle or road infrastructure with injury to driver and any others present</t>
+  </si>
+  <si>
+    <t>E2 - Low probability</t>
+  </si>
+  <si>
+    <t>High driving is part of regular driving, however, heavy snow occurs a few times a year</t>
+  </si>
+  <si>
+    <t>On highway speed of vehicle is expected to be high</t>
+  </si>
+  <si>
+    <t>C2 - Normally controllable</t>
+  </si>
+  <si>
+    <t>When driving on highway with low beam, it can be expected that there are other vehicles and there is some form of illumination on road and hence &gt;90% drivers are able to brake and control the vehicle. And also use other forms of warning (e.g. hazard lights) to signal malfunction</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>HA-004</t>
+  </si>
+  <si>
+    <t>OS02 - Country Road</t>
+  </si>
+  <si>
+    <t>Night time + Oncoming vehicle</t>
+  </si>
+  <si>
+    <t>Normal Driving on Country Road during Normal conditions with High speed (Night time + Oncoming vehicle)</t>
+  </si>
+  <si>
+    <t>High speed</t>
+  </si>
+  <si>
+    <t>EV08 - Collision with other vehicle</t>
+  </si>
+  <si>
+    <t>Vehicle crashes into the oncoming vechile or road infrastructure</t>
+  </si>
+  <si>
+    <t>country driving is part of regular driving</t>
+  </si>
+  <si>
+    <t>On country roads speed of vehicle is expected to be high</t>
+  </si>
+  <si>
+    <t>Since there is usually no other form of illumination to be expected on country road, it will be difficult for the average driver to control the vehicle in such a situation</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Normal acceleration</t>
+  </si>
+  <si>
+    <t>HA-005</t>
+  </si>
+  <si>
+    <t>SD04 - High speed</t>
+  </si>
+  <si>
+    <t>Normal Driving on Country Road during Snowfall (degraded view) with High speed (Night time + Obstacle on the road and no other illumination on road)</t>
+  </si>
+  <si>
+    <t>High acceleration</t>
+  </si>
+  <si>
+    <t>country driving is part of regular driving, however, heavy snow occurs a few times a year</t>
+  </si>
+  <si>
+    <t>Normal braking</t>
+  </si>
+  <si>
+    <t>OS03 - Country Road</t>
+  </si>
+  <si>
+    <t>Ego Lane</t>
+  </si>
+  <si>
+    <t>High braking</t>
+  </si>
+  <si>
+    <t>Normal Driving on a Country Road in Normal Conditions at High Speed at Ego Lane.</t>
+  </si>
+  <si>
+    <t>Item Usage</t>
+  </si>
+  <si>
+    <t>Lane Keeping Assistance (LKA) function shall apply the steering torque when active in order to stay in ego lane</t>
+  </si>
+  <si>
+    <t>DV03 - Function always activated</t>
+  </si>
+  <si>
+    <t>The LKA function controls the steering torque with high frequency.</t>
+  </si>
+  <si>
+    <t>The driver was misusing the function by taking both hands off the wheel and incorrectly treating the car as a fully autonomous vehicle.</t>
+  </si>
+  <si>
+    <t>The LKA function is always on.</t>
+  </si>
+  <si>
+    <t>Correctly used</t>
+  </si>
+  <si>
+    <t>Intended usage</t>
+  </si>
+  <si>
+    <t>The driver is on a country road and misusing the system. That combination probably does not happen often.</t>
+  </si>
+  <si>
+    <t>hands aren't on the wheel at high speeds, a vehicle accident would not be controllable.</t>
+  </si>
+  <si>
+    <t>The LKA function shall be time limited and the additional steering torque shall end after a given time interval so that the driver cannot misuse the system for autonomous driving.</t>
+  </si>
+  <si>
     <t>OS01 - Any Road</t>
   </si>
   <si>
-    <t>EN01 - Normal conditions</t>
-  </si>
-  <si>
-    <t>Mountain Pass</t>
-  </si>
-  <si>
-    <t>SD02 - High speed</t>
-  </si>
-  <si>
-    <t>Lane Departure</t>
-  </si>
-  <si>
-    <t>IU01 - Correctly used</t>
-  </si>
-  <si>
-    <t>Normal Driving on a Any Road in Normal Conditions at High Speed at Lane Departure.</t>
-  </si>
-  <si>
-    <t>Lane Departure Warning (LDW) function shall apply an oscillating steering torque to provide the driver with haptic feedback</t>
-  </si>
-  <si>
-    <t>DV04 - Actor effect is too much</t>
-  </si>
-  <si>
-    <t>The LDW function applies an oscillating torque with very high torque (above limit).</t>
-  </si>
-  <si>
-    <t>EV00 - Collision with other vehicle</t>
-  </si>
-  <si>
-    <t>Off Road</t>
-  </si>
-  <si>
-    <t>High haptic feedback can affect driver's ability to steer as intended. The driver could lose control of the vehicle and collide with another vehicle or with road infrastructure.</t>
-  </si>
-  <si>
-    <t>The LDW function applies too high an oscillating torque to the steering wheel (above limit).</t>
-  </si>
-  <si>
-    <t>E3 - Medium probability</t>
-  </si>
-  <si>
-    <t>Occurs once a month or more often for an average driver</t>
-  </si>
-  <si>
-    <t>S3 - Life-threatening or fatal injuries</t>
-  </si>
-  <si>
-    <t>Road with gradient</t>
-  </si>
-  <si>
-    <t>On country roads speed of vehicle is expected to be high.</t>
-  </si>
-  <si>
-    <t>road attribute</t>
-  </si>
-  <si>
-    <t>Road with bump</t>
-  </si>
-  <si>
-    <t>Road tunnel</t>
-  </si>
-  <si>
-    <t>C3 - Difficult to control or uncontrollable</t>
-  </si>
-  <si>
-    <t>If the lane departure warning function causes the steering wheel to vibrate excessively with wild swings of the steering wheel, most drivers would have difficulty controlling the vehicle.</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Road with construction site</t>
-  </si>
-  <si>
-    <t>The oscillating steering torque from the LDW function shall be limited.</t>
-  </si>
-  <si>
-    <t>HA-002</t>
-  </si>
-  <si>
-    <t>Ego Lane</t>
-  </si>
-  <si>
-    <t>Normal Driving</t>
+    <t>EN07 - Snow (slippery road)</t>
+  </si>
+  <si>
+    <t>Incorrectly used</t>
+  </si>
+  <si>
+    <t>Normal Driving on a Any Road in Snow at High Speed at Lane Departure.</t>
+  </si>
+  <si>
+    <t>Unintended usage (foreseeable)</t>
+  </si>
+  <si>
+    <t>The LDW function does not add vibration torque.</t>
+  </si>
+  <si>
+    <t>Although the line departed while traveling on the snow road, the driver did not notice the deviation because the torque does not vibrate.</t>
+  </si>
+  <si>
+    <t>The LDW function deviated from the line, but does not vibrate the torque.</t>
+  </si>
+  <si>
+    <t>The majority of drivers will not run on snowy roads where lanes are not visible.</t>
+  </si>
+  <si>
+    <t>If you look around, there is a possibility that you may notice the LDW function without communicating.</t>
+  </si>
+  <si>
+    <t>The LDW function shall be able to judge whether the lane departs from the lane other than the lane.</t>
   </si>
   <si>
     <t>Normal Driving on a Any Road in Normal Conditions at High Speed at Ego Lane.</t>
   </si>
   <si>
-    <t>Lane Keeping Assistance (LKA) function shall apply the steering torque when active in order to stay in ego lane</t>
-  </si>
-  <si>
-    <t>DV03 - Function always activated</t>
-  </si>
-  <si>
-    <t>Normal Conditions</t>
-  </si>
-  <si>
-    <t>The LKA function is always on.</t>
-  </si>
-  <si>
-    <t>Low Speed</t>
-  </si>
-  <si>
-    <t>Night time + Obstacle on the road</t>
-  </si>
-  <si>
-    <t>Correctly Used</t>
-  </si>
-  <si>
-    <t>The driver was misusing the function by taking both hands off the wheel and incorrectly treating the car as a fully autonomous vehicle.</t>
-  </si>
-  <si>
-    <t>Normal Driving on a City Road in Normal Conditions at Low Speed at Night with an Obstacle on the Road</t>
-  </si>
-  <si>
-    <t>E2 - Low probability</t>
-  </si>
-  <si>
-    <t>Low beam illuminates the roadway in the dark</t>
-  </si>
-  <si>
-    <t>Function not activated</t>
-  </si>
-  <si>
-    <t>Low speed</t>
-  </si>
-  <si>
-    <t>Both headlights stop working</t>
-  </si>
-  <si>
-    <t>driving attribute</t>
-  </si>
-  <si>
-    <t>Front collision with obstacle</t>
-  </si>
-  <si>
-    <t>Vehicle crashes into the obstacle with injury to driver</t>
-  </si>
-  <si>
-    <t>Total loss of low beam</t>
-  </si>
-  <si>
-    <t>E4 - High probability</t>
-  </si>
-  <si>
-    <t>night driving in the city is a regular activity</t>
-  </si>
-  <si>
-    <t>S1 - Light and moderate injuries</t>
-  </si>
-  <si>
-    <t>In city traffiic, speed of vehicle is expected to be low</t>
-  </si>
-  <si>
-    <t>C0 - Controllable in general</t>
-  </si>
-  <si>
-    <t>At city speed, most drivers will be able to control the situation by applying brakes and there is additional illmunitation on city roads</t>
-  </si>
-  <si>
-    <t>QM</t>
-  </si>
-  <si>
-    <t>Total Loss of Beam Shall Be Prevented</t>
-  </si>
-  <si>
-    <t>The driver is on a country road and misusing the system. That combination probably does not happen often.</t>
-  </si>
-  <si>
-    <t>High speed</t>
-  </si>
-  <si>
-    <t>hands aren't on the wheel at high speeds, a vehicle accident would not be controllable.</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>The LKA function shall be time limited and the additional steering torque shall end after a given time interval so that the driver cannot misuse the system for autonomous driving.</t>
-  </si>
-  <si>
-    <t>HA-003</t>
-  </si>
-  <si>
-    <t>Normal acceleration</t>
-  </si>
-  <si>
-    <t>EN07 - Snow (slippery road)</t>
-  </si>
-  <si>
-    <t>Normal Driving on a Any Road in Snow at High Speed at Lane Departure.</t>
-  </si>
-  <si>
-    <t>High acceleration</t>
-  </si>
-  <si>
-    <t>DV01 - Function not activated</t>
-  </si>
-  <si>
-    <t>The LDW function does not add vibration torque.</t>
-  </si>
-  <si>
-    <t>Although the line departed while traveling on the snow road, the driver did not notice the deviation because the torque does not vibrate.</t>
-  </si>
-  <si>
-    <t>The LDW function deviated from the line, but does not vibrate the torque.</t>
-  </si>
-  <si>
-    <t>E1 - Very low probability</t>
-  </si>
-  <si>
-    <t>The majority of drivers will not run on snowy roads where lanes are not visible.</t>
-  </si>
-  <si>
-    <t>Normal braking</t>
-  </si>
-  <si>
-    <t>C2 - Normally controllable</t>
-  </si>
-  <si>
-    <t>If you look around, there is a possibility that you may notice the LDW function without communicating.</t>
-  </si>
-  <si>
-    <t>The LDW function shall be able to judge whether the lane departs from the lane other than the lane.</t>
-  </si>
-  <si>
-    <t>High braking</t>
-  </si>
-  <si>
-    <t>HA-004</t>
-  </si>
-  <si>
     <t>DV02 - Function unexpectedly activated</t>
   </si>
   <si>
@@ -488,159 +623,39 @@
     <t>We assume that the opportunity to overtake a forward vehicle occurs more than once a month.</t>
   </si>
   <si>
-    <t>MORE EXAMPLES - Headlamp System</t>
-  </si>
-  <si>
     <t>If the driver reduces the vehicle speed, there is a high possibility of avoiding a frontal collision.</t>
   </si>
   <si>
     <t>When overtaking a vehicle ahead in the driving lane, The LKA function shall not move the torque.</t>
   </si>
   <si>
-    <t>Item Usage</t>
-  </si>
-  <si>
-    <t>Situation Analysis</t>
-  </si>
-  <si>
-    <t>Correctly used</t>
-  </si>
-  <si>
-    <t>Intended usage</t>
-  </si>
-  <si>
-    <t>Incorrectly used</t>
-  </si>
-  <si>
-    <t>Unintended usage (foreseeable)</t>
-  </si>
-  <si>
     <t>Normal conditions</t>
   </si>
   <si>
     <t>weather attribute</t>
   </si>
   <si>
-    <t>OM03 - Normal Driving</t>
-  </si>
-  <si>
-    <t>OS01 - City Road</t>
-  </si>
-  <si>
-    <t>SD03 - Low speed</t>
-  </si>
-  <si>
-    <t>Normal Driving on City Road during Normal conditions with Low speed (Night time + Obstacle on the road)</t>
-  </si>
-  <si>
-    <t>EV04 - Front collision with obstacle</t>
-  </si>
-  <si>
     <t>Sun blares (degraded view)</t>
   </si>
   <si>
-    <t>Total loss of low beam shall be prevented</t>
-  </si>
-  <si>
     <t>Fog (degraded view)</t>
   </si>
   <si>
-    <t>EN04 - Snowfall (degraded view)</t>
-  </si>
-  <si>
-    <t>Night time + Obstacle on the road and no other illumination on road</t>
-  </si>
-  <si>
-    <t>Normal Driving on City Road during Snowfall (degraded view) with Low speed (Night time + Obstacle on the road and no other illumination on road)</t>
-  </si>
-  <si>
     <t>Snowfall (degraded view)</t>
   </si>
   <si>
-    <t>night driving in the city on completely unilluminated roads while it is snowing is rare</t>
-  </si>
-  <si>
     <t>Cross-wind (lateral force)</t>
   </si>
   <si>
-    <t>C1 - Simply controllable</t>
-  </si>
-  <si>
-    <t>On completely unilluminated city roads, drivers usually drive at lower end of city speeds and hence are expected to be able to control vehicle</t>
-  </si>
-  <si>
     <t>Rain (slippery road)</t>
   </si>
   <si>
-    <t>OS03 - Highway</t>
-  </si>
-  <si>
-    <t>SD03 - High speed</t>
-  </si>
-  <si>
-    <t>Night time + Obstacle on the road or upcoming curve</t>
-  </si>
-  <si>
-    <t>Normal Driving on Highway during Snowfall (degraded view) with High speed (Night time + Obstacle on the road or upcoming curve)</t>
-  </si>
-  <si>
     <t>Snow (slippery road)</t>
   </si>
   <si>
-    <t>Vehicle crashes into the obstacle or road infrastructure with injury to driver and any others present</t>
-  </si>
-  <si>
-    <t>High driving is part of regular driving, however, heavy snow occurs a few times a year</t>
-  </si>
-  <si>
-    <t>On highway speed of vehicle is expected to be high</t>
-  </si>
-  <si>
     <t>Glace (slippery road)</t>
   </si>
   <si>
-    <t>When driving on highway with low beam, it can be expected that there are other vehicles and there is some form of illumination on road and hence &gt;90% drivers are able to brake and control the vehicle. And also use other forms of warning (e.g. hazard lights) to signal malfunction</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>OS02 - Country Road</t>
-  </si>
-  <si>
-    <t>Night time + Oncoming vehicle</t>
-  </si>
-  <si>
-    <t>Normal Driving on Country Road during Normal conditions with High speed (Night time + Oncoming vehicle)</t>
-  </si>
-  <si>
-    <t>EV08 - Collision with other vehicle</t>
-  </si>
-  <si>
-    <t>Vehicle crashes into the oncoming vechile or road infrastructure</t>
-  </si>
-  <si>
-    <t>country driving is part of regular driving</t>
-  </si>
-  <si>
-    <t>On country roads speed of vehicle is expected to be high</t>
-  </si>
-  <si>
-    <t>Since there is usually no other form of illumination to be expected on country road, it will be difficult for the average driver to control the vehicle in such a situation</t>
-  </si>
-  <si>
-    <t>HA-005</t>
-  </si>
-  <si>
-    <t>SD04 - High speed</t>
-  </si>
-  <si>
-    <t>Normal Driving on Country Road during Snowfall (degraded view) with High speed (Night time + Obstacle on the road and no other illumination on road)</t>
-  </si>
-  <si>
-    <t>country driving is part of regular driving, however, heavy snow occurs a few times a year</t>
-  </si>
-  <si>
     <t>Deviation (Guideword)</t>
   </si>
   <si>
@@ -686,12 +701,39 @@
     <t>Logical error</t>
   </si>
   <si>
+    <t>Actor effect is wrong</t>
+  </si>
+  <si>
+    <t>Sensor sensitivity is too high</t>
+  </si>
+  <si>
+    <t>Sensor sensitivity is too low</t>
+  </si>
+  <si>
+    <t>Sensor detection too early</t>
+  </si>
+  <si>
+    <t>Sensor detection too late</t>
+  </si>
+  <si>
+    <t>Sensor detection before</t>
+  </si>
+  <si>
+    <t>Sensor detection after</t>
+  </si>
+  <si>
+    <t>Sensor detection is reverse</t>
+  </si>
+  <si>
+    <t>Sensor detection is wrong</t>
+  </si>
+  <si>
+    <t>Hazardous Events (possibe effects)</t>
+  </si>
+  <si>
     <t>Exposure</t>
   </si>
   <si>
-    <t>Actor effect is wrong</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -701,36 +743,24 @@
     <t>Frequency (of situation)</t>
   </si>
   <si>
-    <t>Sensor sensitivity is too high</t>
+    <t>Controllability</t>
   </si>
   <si>
     <t>E0</t>
   </si>
   <si>
-    <t>Sensor sensitivity is too low</t>
-  </si>
-  <si>
-    <t>Sensor detection too early</t>
-  </si>
-  <si>
-    <t>Sensor detection too late</t>
-  </si>
-  <si>
-    <t>Controllability</t>
-  </si>
-  <si>
-    <t>Sensor detection before</t>
+    <t>Hazardous Event</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Severity</t>
   </si>
   <si>
     <t>Incredible</t>
   </si>
   <si>
-    <t>Sensor detection after</t>
-  </si>
-  <si>
-    <t>Sensor detection is reverse</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
@@ -743,9 +773,6 @@
     <t>Occurs less often than once a year for the great majority of drivers</t>
   </si>
   <si>
-    <t>Sensor detection is wrong</t>
-  </si>
-  <si>
     <t>E2</t>
   </si>
   <si>
@@ -779,12 +806,6 @@
     <t>Occurs during almost every drive on average</t>
   </si>
   <si>
-    <t>Severity</t>
-  </si>
-  <si>
-    <t>Hazardous Events (possibe effects)</t>
-  </si>
-  <si>
     <t>Probability of Injuries</t>
   </si>
   <si>
@@ -797,12 +818,18 @@
     <t>AIS 0 and less than 10 % probability of AIS 1-6</t>
   </si>
   <si>
+    <t>Front collision with oncoming traffic</t>
+  </si>
+  <si>
     <t>S1</t>
   </si>
   <si>
     <t>Light and moderate injuries</t>
   </si>
   <si>
+    <t>Front collision with ahead traffic</t>
+  </si>
+  <si>
     <t>More than 10 % probability of AIS 1-6 (and not S2 or S3)</t>
   </si>
   <si>
@@ -812,9 +839,6 @@
     <t>Severe and life-threatening injuries</t>
   </si>
   <si>
-    <t>Hazardous Event</t>
-  </si>
-  <si>
     <t>Severe and life-threatening injuries (survival probable)</t>
   </si>
   <si>
@@ -833,33 +857,42 @@
     <t>More than 10 % probability of AIS 5-6</t>
   </si>
   <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Rear collision with trailing traffic</t>
+  </si>
+  <si>
+    <t>Side collision with other traffic</t>
+  </si>
+  <si>
+    <t>Side collision with obstacle</t>
+  </si>
+  <si>
+    <t>Collision with other vehicle</t>
+  </si>
+  <si>
+    <t>Collision with train</t>
+  </si>
+  <si>
+    <t>Collision with pedestrian</t>
+  </si>
+  <si>
+    <t>Car spins out of control</t>
+  </si>
+  <si>
+    <t>Car comes off the road</t>
+  </si>
+  <si>
     <t>C0</t>
   </si>
   <si>
+    <t>Car catches file</t>
+  </si>
+  <si>
     <t>Controllable in general</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>Front collision with oncoming traffic</t>
-  </si>
-  <si>
-    <t>Front collision with ahead traffic</t>
-  </si>
-  <si>
-    <t>Rear collision with trailing traffic</t>
-  </si>
-  <si>
-    <t>Side collision with other traffic</t>
-  </si>
-  <si>
-    <t>Side collision with obstacle</t>
-  </si>
-  <si>
     <t>Simply controllable</t>
   </si>
   <si>
@@ -882,24 +915,6 @@
   </si>
   <si>
     <t>Less than 90 % of all drivers or other traffic participants are usually able, or barely able, to avoid harm</t>
-  </si>
-  <si>
-    <t>Collision with other vehicle</t>
-  </si>
-  <si>
-    <t>Collision with train</t>
-  </si>
-  <si>
-    <t>Collision with pedestrian</t>
-  </si>
-  <si>
-    <t>Car spins out of control</t>
-  </si>
-  <si>
-    <t>Car comes off the road</t>
-  </si>
-  <si>
-    <t>Car catches file</t>
   </si>
   <si>
     <t>D</t>
@@ -922,11 +937,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
     </font>
     <font>
       <b/>
@@ -965,14 +980,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FFBFBFBF"/>
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
@@ -983,33 +998,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB7B7B7"/>
-        <bgColor rgb="FFB7B7B7"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="21">
     <border/>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1028,6 +1029,28 @@
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
@@ -1047,20 +1070,6 @@
       </top>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -1072,13 +1081,10 @@
       </bottom>
     </border>
     <border>
+      <left/>
       <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -1093,13 +1099,11 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1107,11 +1111,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1138,6 +1137,30 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1173,28 +1196,20 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -1207,158 +1222,158 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="3" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1423,30 +1438,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3"/>
+      <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
       <c r="Y1" s="11"/>
@@ -1455,30 +1470,30 @@
       <c r="AB1" s="11"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
@@ -1487,30 +1502,30 @@
       <c r="AB2" s="11"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
@@ -1519,30 +1534,30 @@
       <c r="AB3" s="11"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
@@ -1551,30 +1566,30 @@
       <c r="AB4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
@@ -1583,30 +1598,30 @@
       <c r="AB5" s="11"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -1615,28 +1630,28 @@
       <c r="AB6" s="11"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
@@ -1645,28 +1660,28 @@
       <c r="AB7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
@@ -1675,28 +1690,28 @@
       <c r="AB8" s="11"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
@@ -1705,38 +1720,38 @@
       <c r="AB9" s="11"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
+      <c r="A10" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="V10" s="27"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
@@ -1745,372 +1760,372 @@
       <c r="AB10" s="11"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="K11" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="M11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="N11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="O11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="P11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="Q11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="R11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="S11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="T11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="V11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="R11" s="25" t="s">
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="S11" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="T11" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="U11" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="V11" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="O12" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="S12" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="T12" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="U12" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="V12" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
+      <c r="B12" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="U12" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="V12" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="28" t="s">
+      <c r="A13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="28" t="s">
+      <c r="C13" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="F13" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="U13" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="V13" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="O13" s="33" t="s">
+      <c r="G14" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q13" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="R13" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="S13" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="T13" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="U13" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="V13" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="N14" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="O14" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="P14" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q14" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="R14" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="S14" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="T14" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="U14" s="29" t="s">
+      <c r="K14" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="V14" s="30" t="s">
+      <c r="R14" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="S14" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
+      <c r="T14" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="U14" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="V14" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="28" t="s">
+      <c r="A15" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="28" t="s">
+      <c r="C15" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="M15" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="N15" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="O15" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q15" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="R15" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="S15" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="T15" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="U15" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="V15" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
+      <c r="F15" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="U15" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="V15" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
     </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -3142,469 +3157,469 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>4</v>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="15"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="B5" s="20"/>
+      <c r="C5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="W6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="23"/>
-      <c r="C5" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="V5" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="W5" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q6" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="S6" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="T6" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="U6" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="V6" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="W6" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C12" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="W12" s="21"/>
+        <v>85</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="W12" s="27"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
@@ -3613,539 +3628,539 @@
       <c r="AC12" s="11"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="23"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="L13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="25" t="s">
+      <c r="N13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="P13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="Q13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="R13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="S13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="T13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="25" t="s">
+      <c r="V13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="W13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="R13" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" s="25" t="s">
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="B14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="T13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="U13" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="V13" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="W13" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="W14" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="B15" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="U15" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="V15" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="W15" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="B16" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="S16" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="U16" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="V16" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="W16" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="B17" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="S17" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="T17" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="U17" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V17" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="W17" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="B18" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" s="28" t="s">
+      <c r="R18" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="S18" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="T18" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V18" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="W18" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M14" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="O14" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="P14" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q14" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="R14" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="S14" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="T14" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="U14" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="V14" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="W14" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="M15" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="O15" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="P15" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q15" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="R15" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="S15" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="T15" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="U15" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="V15" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="W15" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="N16" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="O16" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="P16" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="R16" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="S16" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="T16" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="U16" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="V16" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="W16" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="B17" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="M17" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="N17" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="O17" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="P17" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="R17" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="S17" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="T17" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="U17" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="V17" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="W17" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="M18" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="O18" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="P18" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q18" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="R18" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="S18" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="T18" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="U18" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="V18" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="W18" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -5168,76 +5183,76 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="14" t="str">
@@ -5245,25 +5260,25 @@
         <v>OM01</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="18" t="str">
         <f t="shared" ref="D5:D13" si="2">$A5 &amp; " - " &amp; $B5</f>
         <v>OM01 - Parked</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="14" t="str">
@@ -5271,25 +5286,25 @@
         <v>OM02</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="18" t="str">
         <f t="shared" si="2"/>
         <v>OM02 - Ignition on</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="14" t="str">
@@ -5297,25 +5312,25 @@
         <v>OM03</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="18" t="str">
         <f t="shared" si="2"/>
         <v>OM03 - Normal driving</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="14" t="str">
@@ -5323,25 +5338,25 @@
         <v>OM04</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="18" t="str">
         <f t="shared" si="2"/>
         <v>OM04 - Backward driving</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="14" t="str">
@@ -5349,25 +5364,25 @@
         <v>OM05</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="18" t="str">
         <f t="shared" si="2"/>
         <v>OM05 - Degraded driving</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="14" t="str">
@@ -5375,25 +5390,25 @@
         <v>OM06</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="18" t="str">
         <f t="shared" si="2"/>
         <v>OM06 - Towing (active)</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="14" t="str">
@@ -5401,7 +5416,7 @@
         <v>OM07</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>30</v>
@@ -5410,16 +5425,16 @@
         <f t="shared" si="2"/>
         <v>OM07 - Towing (passive)</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="14" t="str">
@@ -5427,25 +5442,25 @@
         <v>OM08</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D12" s="18" t="str">
         <f t="shared" si="2"/>
         <v>OM08 - Service</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="14" t="str">
@@ -5453,99 +5468,99 @@
         <v>OM09</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D13" s="18" t="str">
         <f t="shared" si="2"/>
         <v>OM09 - N/A</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="A17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="14" t="str">
@@ -5553,25 +5568,25 @@
         <v>OS01</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D18" s="18" t="str">
         <f t="shared" ref="D18:D28" si="4">$A18 &amp; " - " &amp; $B18</f>
         <v>OS01 - Any Road</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="14" t="str">
@@ -5579,25 +5594,25 @@
         <v>OS02</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D19" s="18" t="str">
         <f t="shared" si="4"/>
         <v>OS02 - City Road</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="14" t="str">
@@ -5605,25 +5620,25 @@
         <v>OS03</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D20" s="18" t="str">
         <f t="shared" si="4"/>
         <v>OS03 - Country Road</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="14" t="str">
@@ -5631,25 +5646,25 @@
         <v>OS04</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D21" s="18" t="str">
         <f t="shared" si="4"/>
         <v>OS04 - Highway</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="14" t="str">
@@ -5657,25 +5672,25 @@
         <v>OS05</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D22" s="18" t="str">
         <f t="shared" si="4"/>
         <v>OS05 - Mountain Pass</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="14" t="str">
@@ -5683,25 +5698,25 @@
         <v>OS06</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D23" s="18" t="str">
         <f t="shared" si="4"/>
         <v>OS06 - Off Road</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="14" t="str">
@@ -5709,25 +5724,25 @@
         <v>OS07</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D24" s="18" t="str">
         <f t="shared" si="4"/>
         <v>OS07 - Road with gradient</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="14" t="str">
@@ -5735,25 +5750,25 @@
         <v>OS08</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D25" s="18" t="str">
         <f t="shared" si="4"/>
         <v>OS08 - Road with bump</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="14" t="str">
@@ -5761,25 +5776,25 @@
         <v>OS09</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D26" s="18" t="str">
         <f t="shared" si="4"/>
         <v>OS09 - Road tunnel</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="14" t="str">
@@ -5787,25 +5802,25 @@
         <v>OS10</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D27" s="18" t="str">
         <f t="shared" si="4"/>
         <v>OS10 - Road with construction site</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="14" t="str">
@@ -5813,99 +5828,99 @@
         <v>OS11</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D28" s="18" t="str">
         <f t="shared" si="4"/>
         <v>OS11 - N/A</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="A32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="14" t="str">
@@ -5913,25 +5928,25 @@
         <v>SD01</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D33" s="18" t="str">
         <f t="shared" ref="D33:D39" si="6">$A33 &amp; " - " &amp; $B33</f>
         <v>SD01 - Low speed</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="14" t="str">
@@ -5939,25 +5954,25 @@
         <v>SD02</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D34" s="18" t="str">
         <f t="shared" si="6"/>
         <v>SD02 - High speed</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="14" t="str">
@@ -5965,25 +5980,25 @@
         <v>SD03</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D35" s="18" t="str">
         <f t="shared" si="6"/>
         <v>SD03 - Normal acceleration</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="14" t="str">
@@ -5991,25 +6006,25 @@
         <v>SD04</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D36" s="18" t="str">
         <f t="shared" si="6"/>
         <v>SD04 - High acceleration</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="14" t="str">
@@ -6017,25 +6032,25 @@
         <v>SD05</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D37" s="18" t="str">
         <f t="shared" si="6"/>
         <v>SD05 - Normal braking</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="14" t="str">
@@ -6043,25 +6058,25 @@
         <v>SD06</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D38" s="18" t="str">
         <f t="shared" si="6"/>
         <v>SD06 - High braking</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="14" t="str">
@@ -6069,99 +6084,99 @@
         <v>SD07</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D39" s="18" t="str">
         <f t="shared" si="6"/>
         <v>SD07 - N/A</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="14" t="str">
@@ -6169,25 +6184,25 @@
         <v>IU01</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D44" s="18" t="str">
         <f t="shared" ref="D44:D46" si="8">$A44 &amp; " - " &amp; $B44</f>
         <v>IU01 - Correctly used</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="14" t="str">
@@ -6195,25 +6210,25 @@
         <v>IU02</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D45" s="18" t="str">
         <f t="shared" si="8"/>
         <v>IU02 - Incorrectly used</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="14" t="str">
@@ -6221,99 +6236,99 @@
         <v>IU03</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D46" s="18" t="str">
         <f t="shared" si="8"/>
         <v>IU03 - N/A</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="10" t="s">
+      <c r="A50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="14" t="str">
@@ -6321,25 +6336,25 @@
         <v>EN01</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="D51" s="18" t="str">
         <f t="shared" ref="D51:D59" si="10">$A51 &amp; " - " &amp; $B51</f>
         <v>EN01 - Normal conditions</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="14" t="str">
@@ -6347,25 +6362,25 @@
         <v>EN02</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="D52" s="18" t="str">
         <f t="shared" si="10"/>
         <v>EN02 - Sun blares (degraded view)</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="14" t="str">
@@ -6373,25 +6388,25 @@
         <v>EN03</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="D53" s="18" t="str">
         <f t="shared" si="10"/>
         <v>EN03 - Fog (degraded view)</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="14" t="str">
@@ -6399,25 +6414,25 @@
         <v>EN04</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="D54" s="18" t="str">
         <f t="shared" si="10"/>
         <v>EN04 - Snowfall (degraded view)</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="14" t="str">
@@ -6425,25 +6440,25 @@
         <v>EN05</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="D55" s="18" t="str">
         <f t="shared" si="10"/>
         <v>EN05 - Cross-wind (lateral force)</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="14" t="str">
@@ -6451,25 +6466,25 @@
         <v>EN06</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D56" s="18" t="str">
         <f t="shared" si="10"/>
         <v>EN06 - Rain (slippery road)</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="14" t="str">
@@ -6477,25 +6492,25 @@
         <v>EN07</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D57" s="18" t="str">
         <f t="shared" si="10"/>
         <v>EN07 - Snow (slippery road)</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="14" t="str">
@@ -6503,25 +6518,25 @@
         <v>EN08</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D58" s="18" t="str">
         <f t="shared" si="10"/>
         <v>EN08 - Glace (slippery road)</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="14" t="str">
@@ -6529,349 +6544,349 @@
         <v>EN09</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D59" s="18" t="str">
         <f t="shared" si="10"/>
         <v>EN09 - N/A</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
     </row>
     <row r="86" ht="15.75" customHeight="1"/>
     <row r="87" ht="15.75" customHeight="1"/>
@@ -6898,20 +6913,20 @@
     <row r="108" ht="15.75" customHeight="1"/>
     <row r="109" ht="15.75" customHeight="1"/>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1"/>
     <row r="112" ht="15.75" customHeight="1"/>
@@ -7840,11 +7855,11 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
@@ -7857,17 +7872,17 @@
       <c r="N2" s="37"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -7886,10 +7901,10 @@
         <v>DV01</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D4" s="18" t="str">
         <f t="shared" ref="D4:D23" si="2">$A4 &amp; " - " &amp; $B4</f>
@@ -7912,10 +7927,10 @@
         <v>DV02</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D5" s="18" t="str">
         <f t="shared" si="2"/>
@@ -7938,10 +7953,10 @@
         <v>DV03</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D6" s="18" t="str">
         <f t="shared" si="2"/>
@@ -7964,10 +7979,10 @@
         <v>DV04</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D7" s="18" t="str">
         <f t="shared" si="2"/>
@@ -7990,10 +8005,10 @@
         <v>DV05</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D8" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8016,10 +8031,10 @@
         <v>DV06</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D9" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8042,10 +8057,10 @@
         <v>DV07</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D10" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8068,10 +8083,10 @@
         <v>DV08</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D11" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8094,10 +8109,10 @@
         <v>DV09</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D12" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8120,10 +8135,10 @@
         <v>DV10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D13" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8146,10 +8161,10 @@
         <v>DV11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D14" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8172,10 +8187,10 @@
         <v>DV12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D15" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8201,7 +8216,7 @@
         <v>222</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D16" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8227,7 +8242,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D17" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8253,7 +8268,7 @@
         <v>224</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D18" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8276,10 +8291,10 @@
         <v>DV16</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D19" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8302,10 +8317,10 @@
         <v>DV17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D20" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8328,10 +8343,10 @@
         <v>DV18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D21" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8354,10 +8369,10 @@
         <v>DV19</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D22" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8380,10 +8395,10 @@
         <v>DV20</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D23" s="18" t="str">
         <f t="shared" si="2"/>
@@ -8401,10 +8416,10 @@
       <c r="N23" s="37"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -8417,7 +8432,7 @@
       <c r="N24" s="37"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="41"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -8433,12 +8448,12 @@
       <c r="N25" s="37"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
+      <c r="A26" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -8451,17 +8466,17 @@
       <c r="N26" s="37"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="C27" s="48" t="s">
+      <c r="A27" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="42" t="s">
         <v>8</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
@@ -8475,15 +8490,15 @@
       <c r="N27" s="37"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="52" t="str">
+      <c r="A28" s="44" t="str">
         <f t="shared" ref="A28:A41" si="3">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-07</v>
       </c>
-      <c r="B28" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="57" t="str">
+      <c r="B28" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="52" t="str">
         <f t="shared" ref="D28:D41" si="4">$A28 &amp; " - " &amp; $B28</f>
         <v>EV-07 - None</v>
       </c>
@@ -8499,15 +8514,15 @@
       <c r="N28" s="37"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="52" t="str">
+      <c r="A29" s="44" t="str">
         <f t="shared" si="3"/>
         <v>EV-06</v>
       </c>
-      <c r="B29" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="57" t="str">
+      <c r="B29" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="52" t="str">
         <f t="shared" si="4"/>
         <v>EV-06 - Front collision with oncoming traffic</v>
       </c>
@@ -8523,15 +8538,15 @@
       <c r="N29" s="37"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="52" t="str">
+      <c r="A30" s="44" t="str">
         <f t="shared" si="3"/>
         <v>EV-05</v>
       </c>
-      <c r="B30" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="57" t="str">
+      <c r="B30" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="52" t="str">
         <f t="shared" si="4"/>
         <v>EV-05 - Front collision with ahead traffic</v>
       </c>
@@ -8547,15 +8562,15 @@
       <c r="N30" s="37"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="52" t="str">
+      <c r="A31" s="44" t="str">
         <f t="shared" si="3"/>
         <v>EV-04</v>
       </c>
-      <c r="B31" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="57" t="str">
+      <c r="B31" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="52" t="str">
         <f t="shared" si="4"/>
         <v>EV-04 - Front collision with obstacle</v>
       </c>
@@ -8571,15 +8586,15 @@
       <c r="N31" s="37"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="52" t="str">
+      <c r="A32" s="44" t="str">
         <f t="shared" si="3"/>
         <v>EV-03</v>
       </c>
-      <c r="B32" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="57" t="str">
+      <c r="B32" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="52" t="str">
         <f t="shared" si="4"/>
         <v>EV-03 - Rear collision with trailing traffic</v>
       </c>
@@ -8595,15 +8610,15 @@
       <c r="N32" s="37"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="52" t="str">
+      <c r="A33" s="44" t="str">
         <f t="shared" si="3"/>
         <v>EV-02</v>
       </c>
-      <c r="B33" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="57" t="str">
+      <c r="B33" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="52" t="str">
         <f t="shared" si="4"/>
         <v>EV-02 - Side collision with other traffic</v>
       </c>
@@ -8619,15 +8634,15 @@
       <c r="N33" s="37"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="52" t="str">
+      <c r="A34" s="44" t="str">
         <f t="shared" si="3"/>
         <v>EV-01</v>
       </c>
-      <c r="B34" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="57" t="str">
+      <c r="B34" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="52" t="str">
         <f t="shared" si="4"/>
         <v>EV-01 - Side collision with obstacle</v>
       </c>
@@ -8643,15 +8658,15 @@
       <c r="N34" s="37"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="52" t="str">
+      <c r="A35" s="44" t="str">
         <f t="shared" si="3"/>
         <v>EV00</v>
       </c>
-      <c r="B35" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="57" t="str">
+      <c r="B35" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="50"/>
+      <c r="D35" s="52" t="str">
         <f t="shared" si="4"/>
         <v>EV00 - Collision with other vehicle</v>
       </c>
@@ -8667,15 +8682,15 @@
       <c r="N35" s="37"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="52" t="str">
+      <c r="A36" s="44" t="str">
         <f t="shared" si="3"/>
         <v>EV01</v>
       </c>
-      <c r="B36" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="57" t="str">
+      <c r="B36" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="52" t="str">
         <f t="shared" si="4"/>
         <v>EV01 - Collision with train</v>
       </c>
@@ -8691,15 +8706,15 @@
       <c r="N36" s="37"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="52" t="str">
+      <c r="A37" s="44" t="str">
         <f t="shared" si="3"/>
         <v>EV02</v>
       </c>
-      <c r="B37" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="57" t="str">
+      <c r="B37" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="52" t="str">
         <f t="shared" si="4"/>
         <v>EV02 - Collision with pedestrian</v>
       </c>
@@ -8715,15 +8730,15 @@
       <c r="N37" s="37"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="52" t="str">
+      <c r="A38" s="44" t="str">
         <f t="shared" si="3"/>
         <v>EV03</v>
       </c>
-      <c r="B38" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="57" t="str">
+      <c r="B38" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="52" t="str">
         <f t="shared" si="4"/>
         <v>EV03 - Car spins out of control</v>
       </c>
@@ -8739,15 +8754,15 @@
       <c r="N38" s="37"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="52" t="str">
+      <c r="A39" s="44" t="str">
         <f t="shared" si="3"/>
         <v>EV04</v>
       </c>
-      <c r="B39" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="57" t="str">
+      <c r="B39" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="52" t="str">
         <f t="shared" si="4"/>
         <v>EV04 - Car comes off the road</v>
       </c>
@@ -8763,15 +8778,15 @@
       <c r="N39" s="37"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="52" t="str">
+      <c r="A40" s="44" t="str">
         <f t="shared" si="3"/>
         <v>EV05</v>
       </c>
-      <c r="B40" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="57" t="str">
+      <c r="B40" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="50"/>
+      <c r="D40" s="52" t="str">
         <f t="shared" si="4"/>
         <v>EV05 - Car catches file</v>
       </c>
@@ -8787,15 +8802,15 @@
       <c r="N40" s="37"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="52" t="str">
+      <c r="A41" s="44" t="str">
         <f t="shared" si="3"/>
         <v>EV06</v>
       </c>
-      <c r="B41" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="57" t="str">
+      <c r="B41" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="50"/>
+      <c r="D41" s="52" t="str">
         <f t="shared" si="4"/>
         <v>EV06 - N/A</v>
       </c>
@@ -8811,10 +8826,10 @@
       <c r="N41" s="37"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="64"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -11290,56 +11305,56 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>221</v>
+      <c r="A3" s="46" t="s">
+        <v>235</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -11347,519 +11362,519 @@
         <f t="shared" ref="E3:E7" si="1">$A3 &amp; " - " &amp; $B3</f>
         <v>E0 - Incredible</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="38" t="s">
-        <v>230</v>
+      <c r="A4" s="46" t="s">
+        <v>240</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E4" s="18" t="str">
         <f t="shared" si="1"/>
         <v>E1 - Very low probability</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="38" t="s">
-        <v>235</v>
+      <c r="A5" s="46" t="s">
+        <v>244</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>E2 - Low probability</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>239</v>
+      <c r="A6" s="46" t="s">
+        <v>248</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E6" s="18" t="str">
         <f t="shared" si="1"/>
         <v>E3 - Medium probability</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="38" t="s">
-        <v>242</v>
+      <c r="A7" s="46" t="s">
+        <v>251</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E7" s="18" t="str">
         <f t="shared" si="1"/>
         <v>E4 - High probability</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="38" t="s">
-        <v>249</v>
+      <c r="A12" s="46" t="s">
+        <v>256</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E12" s="18" t="str">
         <f t="shared" ref="E12:E15" si="2">$A12 &amp; " - " &amp; $B12</f>
         <v>S0 - No injuries</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="38" t="s">
-        <v>252</v>
+      <c r="A13" s="46" t="s">
+        <v>260</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="E13" s="18" t="str">
         <f t="shared" si="2"/>
         <v>S1 - Light and moderate injuries</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="38" t="s">
-        <v>255</v>
+      <c r="A14" s="46" t="s">
+        <v>264</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E14" s="18" t="str">
         <f t="shared" si="2"/>
         <v>S2 - Severe and life-threatening injuries</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="38" t="s">
-        <v>260</v>
+      <c r="A15" s="46" t="s">
+        <v>268</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E15" s="18" t="str">
         <f t="shared" si="2"/>
         <v>S3 - Life-threatening or fatal injuries</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" s="50" t="s">
+      <c r="A19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="38" t="s">
-        <v>264</v>
+      <c r="A20" s="46" t="s">
+        <v>281</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="59"/>
+        <v>283</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="61"/>
       <c r="E20" s="18" t="str">
         <f t="shared" ref="E20:E23" si="3">$A20 &amp; " - " &amp; $B20</f>
         <v>C0 - Controllable in general</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="38" t="s">
-        <v>267</v>
+      <c r="A21" s="46" t="s">
+        <v>272</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="59"/>
+        <v>284</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="61"/>
       <c r="E21" s="18" t="str">
         <f t="shared" si="3"/>
         <v>C1 - Simply controllable</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="38" t="s">
-        <v>275</v>
+      <c r="A22" s="46" t="s">
+        <v>286</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="59"/>
+        <v>287</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="61"/>
       <c r="E22" s="18" t="str">
         <f t="shared" si="3"/>
         <v>C2 - Normally controllable</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="38" t="s">
-        <v>278</v>
+      <c r="A23" s="46" t="s">
+        <v>289</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="D23" s="59"/>
+        <v>290</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="61"/>
       <c r="E23" s="18" t="str">
         <f t="shared" si="3"/>
         <v>C3 - Difficult to control or uncontrollable</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -12854,255 +12869,255 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="49"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="55" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="50" t="s">
         <v>260</v>
       </c>
+      <c r="F3" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>120</v>
+      <c r="B4" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="61"/>
-      <c r="C5" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>120</v>
+      <c r="B5" s="63"/>
+      <c r="C5" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="61"/>
-      <c r="C6" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>187</v>
+      <c r="B6" s="63"/>
+      <c r="C6" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="49"/>
-      <c r="C7" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>125</v>
+      <c r="B7" s="53"/>
+      <c r="C7" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>120</v>
+      <c r="B8" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="61"/>
-      <c r="C9" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>187</v>
+      <c r="B9" s="63"/>
+      <c r="C9" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="61"/>
-      <c r="C10" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>125</v>
+      <c r="B10" s="63"/>
+      <c r="C10" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="49"/>
-      <c r="C11" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>89</v>
+      <c r="B11" s="53"/>
+      <c r="C11" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>187</v>
+      <c r="B12" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="61"/>
-      <c r="C13" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>125</v>
+      <c r="B13" s="63"/>
+      <c r="C13" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="61"/>
-      <c r="C14" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>89</v>
+      <c r="B14" s="63"/>
+      <c r="C14" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="49"/>
-      <c r="C15" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>287</v>
+      <c r="B15" s="53"/>
+      <c r="C15" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1"/>
